--- a/Virtual Labs.xlsx
+++ b/Virtual Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Optum Global/2025_12_Feb_Python-Data_Viz_analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{AED1F76A-C93A-46B4-AF11-66C80E8CAAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDD02470-7712-4400-8BA7-B6B4721BBB17}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{AED1F76A-C93A-46B4-AF11-66C80E8CAAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC0DBB2-2E83-4321-9583-CC4583CE3F7E}"/>
   <bookViews>
     <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61F86C05-2CC9-4FC1-B109-281C662D14F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>VMS- Instance-Data Analysis and Visualization using Python(Advance)-12-13-14-Feb-2025-Optum</t>
   </si>
@@ -243,6 +243,33 @@
   </si>
   <si>
     <t>Dayal Singh</t>
+  </si>
+  <si>
+    <t>Vikram Singh</t>
+  </si>
+  <si>
+    <t>Merlin Y</t>
+  </si>
+  <si>
+    <t>Siva Chaitanya Reddy</t>
+  </si>
+  <si>
+    <t>Pavithra Talary</t>
+  </si>
+  <si>
+    <t>Apsana Noureen Shaik</t>
+  </si>
+  <si>
+    <t>RAJU ST</t>
+  </si>
+  <si>
+    <t>Bhargav Bollineni</t>
+  </si>
+  <si>
+    <t>Amulya</t>
+  </si>
+  <si>
+    <t>Thalinder Singh</t>
   </si>
 </sst>
 </file>
@@ -480,9 +507,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,6 +518,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,6 +539,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,28 +865,28 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.765625" style="18"/>
-    <col min="3" max="3" width="27.07421875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="20.921875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="23.765625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="43.765625" style="18"/>
+    <col min="2" max="2" width="43.765625" style="17"/>
+    <col min="3" max="3" width="27.07421875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="20.921875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.765625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="43.765625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1053,7 +1084,9 @@
       <c r="E11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
@@ -1071,7 +1104,9 @@
       <c r="E12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="17" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
@@ -1089,7 +1124,9 @@
       <c r="E13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -1107,7 +1144,9 @@
       <c r="E14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
@@ -1125,7 +1164,9 @@
       <c r="E15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
@@ -1143,7 +1184,9 @@
       <c r="E16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
@@ -1161,7 +1204,9 @@
       <c r="E17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
@@ -1179,7 +1224,9 @@
       <c r="E18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
@@ -1197,7 +1244,9 @@
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
@@ -1347,24 +1396,27 @@
       <c r="A28" s="13">
         <v>26</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="B28" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{39BE8077-E2FD-4EEC-8D6E-B1C71F45A97A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>